--- a/Texas/AggregatedAmounts/TX_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Texas/AggregatedAmounts/TX_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C8FEE7-65BA-4018-BB26-DC2EF972035F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEFD8D7-4012-4BC2-88BB-A91A88E2F042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="8" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="WaterSources" sheetId="9" r:id="rId5"/>
     <sheet name="ReportingUnits" sheetId="4" r:id="rId6"/>
     <sheet name="AggregatedAmounts" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="Dict" sheetId="10" r:id="rId8"/>
+    <sheet name="misc" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -714,9 +715,6 @@
     <t>Texas Water Development Board</t>
   </si>
   <si>
-    <t>TWDB</t>
-  </si>
-  <si>
     <t>http://www.twdb.texas.gov/waterplanning/waterusesurvey/estimates/index.asp</t>
   </si>
   <si>
@@ -744,16 +742,10 @@
     <t>Use custom WaDE ID</t>
   </si>
   <si>
-    <t>TWDB _Consumptive Use</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>TWDB_Water Uses</t>
   </si>
   <si>
     <t>Texas Water Uses</t>
@@ -946,6 +938,152 @@
   </si>
   <si>
     <t>*generate from shape file</t>
+  </si>
+  <si>
+    <t>TXag_M1</t>
+  </si>
+  <si>
+    <t>TXag_V + counter</t>
+  </si>
+  <si>
+    <t>TXag_O1</t>
+  </si>
+  <si>
+    <t>*get from variable.csv</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Irrigation_Reuse</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Irrigation_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Irrigation_Surface Water</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Livestock_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Livestock_Reuse</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Livestock_Surface Water</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Manufacturing_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Manufacturing_Reuse</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Manufacturing_Surface Water</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Mining_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Mining_Reuse</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Mining_Surface Water</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Municipal_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Municipal_Reuse</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Municipal_Surface Water</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Power_Groundwater</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Power_Reuse</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Power_Surface Water</t>
+  </si>
+  <si>
+    <t>Consumptive Use_Annual_Irrigation_Groundwater
+Consumptive Use_Annual_Irrigation_Reuse
+Consumptive Use_Annual_Irrigation_Surface Water
+Consumptive Use_Annual_Livestock_Groundwater
+Consumptive Use_Annual_Livestock_Reuse
+Consumptive Use_Annual_Livestock_Surface Water
+Consumptive Use_Annual_Manufacturing_Groundwater
+Consumptive Use_Annual_Manufacturing_Reuse
+Consumptive Use_Annual_Manufacturing_Surface Water
+Consumptive Use_Annual_Mining_Groundwater
+Consumptive Use_Annual_Mining_Reuse
+Consumptive Use_Annual_Mining_Surface Water
+Consumptive Use_Annual_Municipal_Groundwater
+Consumptive Use_Annual_Municipal_Reuse
+Consumptive Use_Annual_Municipal_Surface Water
+Consumptive Use_Annual_Power_Groundwater
+Consumptive Use_Annual_Power_Reuse
+Consumptive Use_Annual_Power_Surface Water</t>
+  </si>
+  <si>
+    <t>TXag_V1</t>
+  </si>
+  <si>
+    <t>TXag_V2</t>
+  </si>
+  <si>
+    <t>TXag_V3</t>
+  </si>
+  <si>
+    <t>TXag_V4</t>
+  </si>
+  <si>
+    <t>TXag_V5</t>
+  </si>
+  <si>
+    <t>TXag_V6</t>
+  </si>
+  <si>
+    <t>TXag_V7</t>
+  </si>
+  <si>
+    <t>TXag_V8</t>
+  </si>
+  <si>
+    <t>TXag_V9</t>
+  </si>
+  <si>
+    <t>TXag_V10</t>
+  </si>
+  <si>
+    <t>TXag_V11</t>
+  </si>
+  <si>
+    <t>TXag_V12</t>
+  </si>
+  <si>
+    <t>TXag_V13</t>
+  </si>
+  <si>
+    <t>TXag_V14</t>
+  </si>
+  <si>
+    <t>TXag_V15</t>
+  </si>
+  <si>
+    <t>TXag_V16</t>
+  </si>
+  <si>
+    <t>TXag_V17</t>
+  </si>
+  <si>
+    <t>TXag_V18</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1321,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1652,6 +1790,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1970,7 +2112,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2060,7 +2202,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2163,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2323,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>11</v>
@@ -2353,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F10" s="84" t="s">
         <v>11</v>
@@ -2385,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" s="84" t="s">
         <v>11</v>
@@ -2449,7 +2591,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2600,7 @@
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2546,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>11</v>
@@ -2610,7 +2752,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>11</v>
@@ -2674,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -2706,7 +2848,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>11</v>
@@ -2738,7 +2880,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>11</v>
@@ -2820,7 +2962,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -2833,8 +2975,8 @@
       <c r="D13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="81" t="s">
-        <v>197</v>
+      <c r="E13" s="115" t="s">
+        <v>321</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>11</v>
@@ -2905,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3009,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3041,7 +3183,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="84" t="s">
         <v>11</v>
@@ -3073,7 +3215,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" s="84" t="s">
         <v>11</v>
@@ -3105,7 +3247,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" s="84" t="s">
         <v>11</v>
@@ -3169,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>11</v>
@@ -3201,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F10" s="84" t="s">
         <v>11</v>
@@ -3233,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" s="84" t="s">
         <v>11</v>
@@ -3307,7 +3449,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3410,7 +3552,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3570,7 +3712,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>11</v>
@@ -3602,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F10" s="84" t="s">
         <v>11</v>
@@ -3748,7 +3890,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3812,7 +3954,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3850,7 +3992,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>11</v>
@@ -3876,7 +4018,7 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>11</v>
@@ -3944,7 +4086,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H10" s="92" t="s">
         <v>11</v>
@@ -4118,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4346,7 +4488,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="F9" s="107"/>
       <c r="G9" s="104"/>
@@ -4375,7 +4517,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="22"/>
@@ -4432,7 +4574,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="100" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="F12" s="109"/>
       <c r="G12" s="104"/>
@@ -4519,11 +4661,11 @@
         <v>11</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="93" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4549,11 +4691,11 @@
         <v>15</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="93" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="27" t="s">
@@ -4871,7 +5013,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="93" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>11</v>
@@ -5055,7 +5197,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="94" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>11</v>
@@ -5087,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>11</v>
@@ -54333,8 +54475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A0E523-8C0F-47F8-B8B5-FD101B1BBAFC}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54346,16 +54488,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="106" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -54376,24 +54518,24 @@
         <v>"County",</v>
       </c>
       <c r="M3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>"Population",</v>
       </c>
       <c r="M4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B22" si="1">""""&amp;A5&amp;""""&amp;","</f>
@@ -54407,12 +54549,12 @@
         <v>"Irrigation Ground Water" : "Irrigation",</v>
       </c>
       <c r="M5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
@@ -54426,12 +54568,12 @@
         <v>"Irrigation Reuse" : "Irrigation",</v>
       </c>
       <c r="M6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
@@ -54445,306 +54587,306 @@
         <v>"Irrigation Surface Water" : "Irrigation",</v>
       </c>
       <c r="M7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>"Livestock Ground Water",</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
         <v>"Livestock Ground Water" : "Livestock",</v>
       </c>
       <c r="M8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
         <v>"Livestock Reuse",</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
         <v>"Livestock Reuse" : "Livestock",</v>
       </c>
       <c r="M9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
         <v>"Livestock Surface Water",</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
         <v>"Livestock Surface Water" : "Livestock",</v>
       </c>
       <c r="M10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
         <v>"Mfg Ground Water",</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
         <v>"Mfg Ground Water" : "Manufacturing",</v>
       </c>
       <c r="M11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
         <v>"Mfg Reuse",</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
         <v>"Mfg Reuse" : "Manufacturing",</v>
       </c>
       <c r="M12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
         <v>"Mfg Surface Water",</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
         <v>"Mfg Surface Water" : "Manufacturing",</v>
       </c>
       <c r="M13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
         <v>"Mining Ground Water",</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
         <v>"Mining Ground Water" : "Mining",</v>
       </c>
       <c r="M14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>"Mining Reuse",</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v>"Mining Reuse" : "Mining",</v>
       </c>
       <c r="M15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>"Mining Surface Water",</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
         <v>"Mining Surface Water" : "Mining",</v>
       </c>
       <c r="M16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>"Municipal Ground Water",</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
         <v>"Municipal Ground Water" : "Municipal",</v>
       </c>
       <c r="M17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>"Municipal Reuse",</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
         <v>"Municipal Reuse" : "Municipal",</v>
       </c>
       <c r="M18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>"Municipal Surface Water",</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
         <v>"Municipal Surface Water" : "Municipal",</v>
       </c>
       <c r="M19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>"Power Ground Water",</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
         <v>"Power Ground Water" : "Power",</v>
       </c>
       <c r="M20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>"Power Reuse",</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
         <v>"Power Reuse" : "Power",</v>
       </c>
       <c r="M21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>"Power Surface Water",</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
         <v>"Power Surface Water" : "Power",</v>
       </c>
       <c r="M22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="106" t="s">
         <v>265</v>
       </c>
-      <c r="B32" s="106" t="s">
-        <v>268</v>
-      </c>
       <c r="C32" s="106" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -54758,7 +54900,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B35" si="3">""""&amp;A34&amp;""""&amp;","</f>
@@ -54767,7 +54909,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="3"/>
@@ -54776,7 +54918,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ref="B36:B53" si="4">""""&amp;A36&amp;""""&amp;","</f>
@@ -54792,7 +54934,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="4"/>
@@ -54808,7 +54950,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="4"/>
@@ -54824,14 +54966,14 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="4"/>
         <v>"Livestock Ground Water",</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="5"/>
@@ -54840,14 +54982,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="4"/>
         <v>"Livestock Reuse",</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="5"/>
@@ -54856,14 +54998,14 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="4"/>
         <v>"Livestock Surface Water",</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="5"/>
@@ -54872,14 +55014,14 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="4"/>
         <v>"Mfg Ground Water",</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="5"/>
@@ -54888,14 +55030,14 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="4"/>
         <v>"Mfg Reuse",</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="5"/>
@@ -54904,14 +55046,14 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="4"/>
         <v>"Mfg Surface Water",</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="5"/>
@@ -54920,14 +55062,14 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="4"/>
         <v>"Mining Ground Water",</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="5"/>
@@ -54936,14 +55078,14 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="4"/>
         <v>"Mining Reuse",</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="5"/>
@@ -54952,14 +55094,14 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="4"/>
         <v>"Mining Surface Water",</v>
       </c>
       <c r="C47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="5"/>
@@ -54968,14 +55110,14 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="4"/>
         <v>"Municipal Ground  Water",</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="5"/>
@@ -54984,14 +55126,14 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="4"/>
         <v>"Municipal Reuse",</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="5"/>
@@ -55000,14 +55142,14 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="4"/>
         <v>"Municipal Surface Water",</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="5"/>
@@ -55016,14 +55158,14 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="4"/>
         <v>"Power Ground Water",</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="5"/>
@@ -55032,14 +55174,14 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="4"/>
         <v>"Power Reuse",</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="5"/>
@@ -55048,14 +55190,14 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="4"/>
         <v>"Power Surface Water",</v>
       </c>
       <c r="C53" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="5"/>
@@ -55069,4 +55211,325 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9128D694-8DB7-4A1B-9E02-54BB7FF6CE67}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" t="str">
+        <f>""""&amp;A1&amp;""""&amp;","</f>
+        <v>"Consumptive Use_Annual_Irrigation_Groundwater",</v>
+      </c>
+      <c r="E1" t="str">
+        <f>""""&amp;B1&amp;""""&amp;","</f>
+        <v>"TXag_V1",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D18" si="0">""""&amp;A2&amp;""""&amp;","</f>
+        <v>"Consumptive Use_Annual_Irrigation_Reuse",</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E18" si="1">""""&amp;B2&amp;""""&amp;","</f>
+        <v>"TXag_V2",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Irrigation_Surface Water",</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V3",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Livestock_Groundwater",</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V4",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Livestock_Reuse",</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V5",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Livestock_Surface Water",</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V6",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Manufacturing_Groundwater",</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V7",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Manufacturing_Reuse",</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V8",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Manufacturing_Surface Water",</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V9",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Mining_Groundwater",</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V10",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Mining_Reuse",</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V11",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Mining_Surface Water",</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V12",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Municipal_Groundwater",</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V13",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Municipal_Reuse",</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V14",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Municipal_Surface Water",</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V15",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Power_Groundwater",</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V16",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Power_Reuse",</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V17",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumptive Use_Annual_Power_Surface Water",</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>"TXag_V18",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="114"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A59833">
+    <sortCondition ref="A1:A59833"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>